--- a/final_data_pipeline/output/311411longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311411longform_elec_options_nowhp.xlsx
@@ -591,7 +591,7 @@
         <v>44</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -920,7 +920,7 @@
         <v>44</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -967,7 +967,7 @@
         <v>45</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -982,10 +982,10 @@
         <v>5205.193162587363</v>
       </c>
       <c r="N10">
-        <v>1.25875</v>
+        <v>1.204711500590784</v>
       </c>
       <c r="O10">
-        <v>1.318088235294118</v>
+        <v>1.258324667221298</v>
       </c>
       <c r="P10">
         <v>0.6506491453234203</v>
@@ -1020,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J11">
         <v>8000</v>
@@ -1067,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1349,7 +1349,7 @@
         <v>44</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1396,7 +1396,7 @@
         <v>45</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1411,10 +1411,10 @@
         <v>466319.3666512911</v>
       </c>
       <c r="N19">
-        <v>1.25875</v>
+        <v>1.281341554412284</v>
       </c>
       <c r="O19">
-        <v>1.318088235294118</v>
+        <v>1.343162802314449</v>
       </c>
       <c r="P19">
         <v>58.28992083141139</v>
@@ -1449,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J20">
         <v>8000</v>
